--- a/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F7489-E3DE-1345-9319-968A07B7B2D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E23A1-6B26-8C42-A833-A3ABD703B3F3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">Valeur (Prix unitaire </t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>AD44 C716</t>
+  </si>
+  <si>
+    <t>probleme</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1173,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C142"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1276,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="W1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="AMH1" s="21"/>
       <c r="AMI1" s="21"/>
@@ -1293,40 +1293,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="23">
         <v>1758</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="L2" s="25">
         <v>2263</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="27">
         <v>33</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="W2" s="33"/>
       <c r="X2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="34">
         <v>1</v>
@@ -1361,40 +1361,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="23">
         <v>1758</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="22">
         <v>1</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="25">
         <v>26000</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="27">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="W3" s="33"/>
       <c r="X3" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="34">
         <v>1</v>
@@ -1429,40 +1429,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="23">
         <v>1758</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="25">
         <v>272</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="27">
         <v>10</v>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="W4" s="33"/>
       <c r="X4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y4" s="34">
         <v>1</v>
@@ -1497,40 +1497,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="23">
         <v>1758</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="22">
         <v>1</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="25">
         <v>1830</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="27">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="W5" s="33"/>
       <c r="X5" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="34">
         <v>1</v>
@@ -1565,40 +1565,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="23">
         <v>1758</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="22">
         <v>1</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="25">
         <v>9299</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="27">
         <v>18</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="W6" s="33"/>
       <c r="X6" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y6" s="34">
         <v>1</v>
@@ -1633,40 +1633,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="23">
         <v>1758</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="22">
         <v>1</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="25">
         <v>7</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="27">
         <v>20</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="W7" s="33"/>
       <c r="X7" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y7" s="34">
         <v>1</v>
@@ -1701,40 +1701,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="23">
         <v>1758</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="22">
         <v>1</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="25">
         <v>3990</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="W8" s="33"/>
       <c r="X8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y8" s="34">
         <v>1</v>
@@ -1769,40 +1769,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="23">
         <v>1758</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="25">
         <v>400</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="W9" s="33"/>
       <c r="X9" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y9" s="34">
         <v>1</v>
@@ -1837,40 +1837,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="23">
         <v>1758</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="25">
         <v>5400</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="W10" s="33"/>
       <c r="X10" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y10" s="34">
         <v>1</v>
@@ -1905,40 +1905,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="23">
         <v>1758</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="22">
         <v>1</v>
       </c>
       <c r="J11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="L11" s="25">
         <v>5000</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="W11" s="33"/>
       <c r="X11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y11" s="34">
         <v>1</v>
@@ -1973,40 +1973,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="23">
         <v>1758</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="22">
         <v>1</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="25">
         <v>52137</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="W12" s="33"/>
       <c r="X12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y12" s="34">
         <v>1</v>
@@ -2041,40 +2041,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="23">
         <v>1758</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="25">
         <v>140</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="27">
         <v>8</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="34">
         <v>1</v>
@@ -2109,40 +2109,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="23">
         <v>1758</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="22">
         <v>1</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="25">
         <v>1421403</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="W14" s="33"/>
       <c r="X14" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y14" s="34">
         <v>1</v>
@@ -2177,40 +2177,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="23">
         <v>1758</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="22">
         <v>1</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="25">
         <v>331742</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15" s="27">
         <v>0.12</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="W15" s="33"/>
       <c r="X15" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y15" s="34">
         <v>1</v>
@@ -2247,40 +2247,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="23">
         <v>1758</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="22">
         <v>2</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="25">
         <v>21</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="27">
         <v>44</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="W16" s="33"/>
       <c r="X16" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y16" s="34">
         <v>1</v>
@@ -2315,40 +2315,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="23">
         <v>1758</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="22">
         <v>2</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" s="25">
         <v>96</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" s="27">
         <v>22</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="W17" s="33"/>
       <c r="X17" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="34">
         <v>1</v>
@@ -2383,40 +2383,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="23">
         <v>1758</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="22">
         <v>2</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="25">
         <v>395</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="W18" s="33"/>
       <c r="X18" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y18" s="34">
         <v>1</v>
@@ -2451,40 +2451,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="23">
         <v>1758</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" s="22">
         <v>2</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="25">
         <v>38882</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="W19" s="33"/>
       <c r="X19" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y19" s="34">
         <v>1</v>
@@ -2519,40 +2519,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="23">
         <v>1758</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="22">
         <v>2</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" s="25">
         <v>7552</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="W20" s="33"/>
       <c r="X20" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y20" s="34">
         <v>1</v>
@@ -2587,40 +2587,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="23">
         <v>1758</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="22">
         <v>2</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L21" s="25">
         <v>98279</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="W21" s="33"/>
       <c r="X21" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y21" s="34">
         <v>1</v>
@@ -2655,40 +2655,40 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="23">
         <v>1758</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="22">
         <v>2</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="25">
         <v>40</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22" s="27">
         <v>10</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="W22" s="33"/>
       <c r="X22" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y22" s="34">
         <v>1</v>
@@ -2723,40 +2723,40 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="23">
         <v>1758</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="22">
         <v>2</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L23" s="25">
         <v>574</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="27">
         <v>3</v>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="W23" s="33"/>
       <c r="X23" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y23" s="34">
         <v>1</v>
@@ -2791,40 +2791,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="23">
         <v>1758</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="22">
         <v>2</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L24" s="25">
         <v>16186</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="27">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="W24" s="33"/>
       <c r="X24" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y24" s="34">
         <v>1</v>
@@ -2859,40 +2859,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="23">
         <v>1758</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="22">
         <v>2</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" s="25">
         <v>2330</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N25" s="27"/>
       <c r="O25" s="27">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="W25" s="33"/>
       <c r="X25" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y25" s="34">
         <v>1</v>
@@ -2927,40 +2927,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="23">
         <v>1758</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="22">
         <v>2</v>
       </c>
       <c r="J26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="L26" s="25">
         <v>113966</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" s="27">
         <v>0.2</v>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="W26" s="33"/>
       <c r="X26" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y26" s="34">
         <v>1</v>
@@ -2995,40 +2995,40 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="23">
         <v>1758</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="22">
         <v>2</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="25">
         <v>156</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N27" s="27">
         <v>10</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="W27" s="33"/>
       <c r="X27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y27" s="34">
         <v>1</v>
@@ -3063,40 +3063,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="23">
         <v>1758</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" s="22">
         <v>2</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L28" s="25">
         <v>454</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="27">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="W28" s="33"/>
       <c r="X28" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y28" s="34">
         <v>1</v>
@@ -3131,40 +3131,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="23">
         <v>1758</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29" s="22">
         <v>2</v>
       </c>
       <c r="J29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="L29" s="25">
         <v>58253</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N29" s="27"/>
       <c r="O29" s="27">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="W29" s="33"/>
       <c r="X29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y29" s="34">
         <v>1</v>
@@ -3199,40 +3199,40 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="23">
         <v>1758</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" s="22">
         <v>2</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" s="25">
         <v>13632</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N30" s="27"/>
       <c r="O30" s="27">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="W30" s="33"/>
       <c r="X30" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y30" s="34">
         <v>1</v>
@@ -3267,40 +3267,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="23">
         <v>1758</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="22">
         <v>2</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L31" s="25">
         <v>66000</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="W31" s="33"/>
       <c r="X31" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y31" s="34">
         <v>1</v>
@@ -3335,40 +3335,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="23">
         <v>1758</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32" s="22">
         <v>2</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L32" s="25">
         <v>20000</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32" s="27"/>
       <c r="O32" s="27">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="W32" s="33"/>
       <c r="X32" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y32" s="34">
         <v>1</v>
@@ -3403,40 +3403,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="23">
         <v>1758</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" s="22">
         <v>2</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="25">
         <v>1740</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33" s="27">
         <v>3</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y33" s="34">
         <v>1</v>
@@ -3473,40 +3473,40 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="23">
         <v>1758</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="22">
         <v>2</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L34" s="25">
         <v>4730</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="W34" s="33"/>
       <c r="X34" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y34" s="34">
         <v>1</v>
@@ -3541,40 +3541,40 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" s="23">
         <v>1758</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35" s="22">
         <v>2</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L35" s="25">
         <v>91</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" s="27">
         <v>33</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="W35" s="33"/>
       <c r="X35" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y35" s="34">
         <v>1</v>
@@ -3609,40 +3609,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="23">
         <v>1758</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="22">
         <v>2</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L36" s="25">
         <v>3000</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N36" s="27">
         <v>20</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="W36" s="33"/>
       <c r="X36" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y36" s="34">
         <v>1</v>
@@ -3677,40 +3677,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="23">
         <v>1758</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" s="22">
         <v>2</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L37" s="25">
         <v>3748</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N37" s="27"/>
       <c r="O37" s="27">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y37" s="34">
         <v>1</v>
@@ -3745,40 +3745,40 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="23">
         <v>1758</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" s="22">
         <v>2</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L38" s="25">
         <v>54521</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" s="27"/>
       <c r="O38" s="27">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="W38" s="33"/>
       <c r="X38" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y38" s="34">
         <v>1</v>
@@ -3813,40 +3813,40 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="23">
         <v>1758</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" s="22">
         <v>2</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L39" s="25">
         <v>514</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N39" s="27">
         <v>0.65</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="W39" s="33"/>
       <c r="X39" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y39" s="34">
         <v>1</v>
@@ -3881,40 +3881,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="23">
         <v>1758</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" s="22">
         <v>3</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L40" s="25">
         <v>1006</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N40" s="27"/>
       <c r="O40" s="27">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="W40" s="33"/>
       <c r="X40" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y40" s="34">
         <v>1</v>
@@ -3951,40 +3951,40 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="23">
         <v>1758</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41" s="22">
         <v>3</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L41" s="25">
         <v>5582</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N41" s="27"/>
       <c r="O41" s="27">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="W41" s="33"/>
       <c r="X41" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y41" s="34">
         <v>1</v>
@@ -4021,40 +4021,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" s="23">
         <v>1758</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42" s="22">
         <v>3</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L42" s="25">
         <v>4000</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N42" s="27">
         <v>0.25</v>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="W42" s="33"/>
       <c r="X42" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y42" s="34">
         <v>1</v>
@@ -4089,40 +4089,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" s="23">
         <v>1758</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="22">
         <v>3</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L43" s="25">
         <v>1664</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N43" s="27">
         <v>120</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="W43" s="33"/>
       <c r="X43" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y43" s="34">
         <v>1</v>
@@ -4157,40 +4157,40 @@
         <v>43</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" s="23">
         <v>1758</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I44" s="22">
         <v>3</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L44" s="25">
         <v>22473</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44" s="27"/>
       <c r="O44" s="27">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="W44" s="33"/>
       <c r="X44" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y44" s="34">
         <v>1</v>
@@ -4225,40 +4225,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" s="23">
         <v>1758</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="22">
         <v>3</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L45" s="25">
         <v>1100</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" s="27">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="W45" s="33"/>
       <c r="X45" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y45" s="34">
         <v>1</v>
@@ -4293,40 +4293,40 @@
         <v>45</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="23">
         <v>1758</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I46" s="22">
         <v>3</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L46" s="25">
         <v>296</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="W46" s="33"/>
       <c r="X46" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y46" s="34">
         <v>1</v>
@@ -4361,40 +4361,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="23">
         <v>1758</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="22">
         <v>3</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L47" s="25">
         <v>410460</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="27">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="W47" s="33"/>
       <c r="X47" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y47" s="34">
         <v>1</v>
@@ -4429,40 +4429,40 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" s="23">
         <v>1758</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I48" s="22">
         <v>3</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L48" s="25">
         <v>3435</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N48" s="27">
         <v>3</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="W48" s="33"/>
       <c r="X48" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y48" s="34">
         <v>1</v>
@@ -4499,40 +4499,40 @@
         <v>48</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="23">
         <v>1758</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I49" s="22">
         <v>3</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L49" s="25">
         <v>5707</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N49" s="27"/>
       <c r="O49" s="27">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="W49" s="33"/>
       <c r="X49" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y49" s="34">
         <v>1</v>
@@ -4567,40 +4567,40 @@
         <v>49</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" s="23">
         <v>1758</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I50" s="22">
         <v>3</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L50" s="25">
         <v>12036</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N50" s="27">
         <v>0.18</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="W50" s="33"/>
       <c r="X50" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y50" s="34">
         <v>1</v>
@@ -4635,40 +4635,40 @@
         <v>50</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="23">
         <v>1758</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I51" s="22">
         <v>3</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L51" s="25">
         <v>69925</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N51" s="27">
         <v>0.2</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="W51" s="33"/>
       <c r="X51" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y51" s="34">
         <v>1</v>
@@ -4703,40 +4703,40 @@
         <v>51</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="23">
         <v>1758</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I52" s="22">
         <v>3</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L52" s="25">
         <v>138</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N52" s="27"/>
       <c r="O52" s="27">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="W52" s="33"/>
       <c r="X52" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y52" s="34">
         <v>1</v>
@@ -4771,40 +4771,40 @@
         <v>52</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" s="23">
         <v>1758</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I53" s="22">
         <v>3</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" s="25">
         <v>19207</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N53" s="27"/>
       <c r="O53" s="27">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="W53" s="33"/>
       <c r="X53" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y53" s="34">
         <v>1</v>
@@ -4839,40 +4839,40 @@
         <v>53</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="23">
         <v>1758</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54" s="22">
         <v>3</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L54" s="25">
         <v>182</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N54" s="27"/>
       <c r="O54" s="27">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y54" s="34">
         <v>1</v>
@@ -4907,40 +4907,40 @@
         <v>54</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" s="23">
         <v>1758</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="22">
         <v>3</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L55" s="25">
         <v>3407</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N55" s="27"/>
       <c r="O55" s="27">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="W55" s="33"/>
       <c r="X55" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y55" s="34">
         <v>1</v>
@@ -4975,40 +4975,40 @@
         <v>55</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="23">
         <v>1758</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56" s="22">
         <v>3</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L56" s="25">
         <v>4000</v>
       </c>
       <c r="M56" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N56" s="27"/>
       <c r="O56" s="27">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="W56" s="33"/>
       <c r="X56" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y56" s="34">
         <v>1</v>
@@ -5043,40 +5043,40 @@
         <v>56</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" s="23">
         <v>1758</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I57" s="22">
         <v>3</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L57" s="25">
         <v>3791</v>
       </c>
       <c r="M57" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N57" s="27"/>
       <c r="O57" s="27">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y57" s="34">
         <v>1</v>
@@ -5111,40 +5111,40 @@
         <v>57</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" s="23">
         <v>1758</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="22">
         <v>3</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L58" s="25">
         <v>18000</v>
       </c>
       <c r="M58" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N58" s="27">
         <v>0.15</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="W58" s="33"/>
       <c r="X58" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y58" s="34">
         <v>1</v>
@@ -5179,40 +5179,40 @@
         <v>58</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" s="23">
         <v>1758</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I59" s="22">
         <v>3</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L59" s="25">
         <v>45487</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N59" s="27"/>
       <c r="O59" s="27">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="W59" s="33"/>
       <c r="X59" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y59" s="34">
         <v>1</v>
@@ -5247,40 +5247,40 @@
         <v>59</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" s="23">
         <v>1758</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I60" s="22">
         <v>3</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L60" s="25">
         <v>3495</v>
       </c>
       <c r="M60" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N60" s="27"/>
       <c r="O60" s="27">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="W60" s="33"/>
       <c r="X60" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y60" s="34">
         <v>1</v>
@@ -5317,40 +5317,40 @@
         <v>60</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" s="23">
         <v>1758</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I61" s="22">
         <v>3</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L61" s="25">
         <v>22313</v>
       </c>
       <c r="M61" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N61" s="27"/>
       <c r="O61" s="27">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="W61" s="33"/>
       <c r="X61" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y61" s="34">
         <v>1</v>
@@ -5385,40 +5385,40 @@
         <v>61</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F62" s="23">
         <v>1758</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I62" s="22">
         <v>3</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L62" s="25">
         <v>319817</v>
       </c>
       <c r="M62" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N62" s="27"/>
       <c r="O62" s="27">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="W62" s="33"/>
       <c r="X62" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y62" s="34">
         <v>1</v>
@@ -5453,40 +5453,40 @@
         <v>62</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" s="23">
         <v>1758</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I63" s="22">
         <v>3</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L63" s="25">
         <v>45814</v>
       </c>
       <c r="M63" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N63" s="27">
         <v>0.3</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="W63" s="33"/>
       <c r="X63" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y63" s="34">
         <v>1</v>
@@ -5521,40 +5521,40 @@
         <v>63</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" s="23">
         <v>1758</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I64" s="22">
         <v>3</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L64" s="25">
         <v>34262</v>
       </c>
       <c r="M64" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N64" s="27"/>
       <c r="O64" s="27">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="W64" s="33"/>
       <c r="X64" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y64" s="34">
         <v>1</v>
@@ -5589,40 +5589,40 @@
         <v>64</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" s="23">
         <v>1758</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I65" s="22">
         <v>3</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L65" s="25">
         <v>947</v>
       </c>
       <c r="M65" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N65" s="27">
         <v>24</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="W65" s="33"/>
       <c r="X65" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y65" s="34">
         <v>1</v>
@@ -5657,40 +5657,40 @@
         <v>65</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" s="23">
         <v>1758</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66" s="22">
         <v>3</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L66" s="25">
         <v>29977</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N66" s="27"/>
       <c r="O66" s="27">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="W66" s="33"/>
       <c r="X66" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y66" s="34">
         <v>1</v>
@@ -5725,40 +5725,40 @@
         <v>66</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="23">
         <v>1758</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I67" s="22">
         <v>3</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L67" s="25">
         <v>5359</v>
       </c>
       <c r="M67" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N67" s="27"/>
       <c r="O67" s="27">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="W67" s="33"/>
       <c r="X67" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y67" s="34">
         <v>1</v>
@@ -5793,40 +5793,40 @@
         <v>67</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="23">
         <v>1758</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I68" s="22">
         <v>3</v>
       </c>
       <c r="J68" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L68" s="25">
         <v>1880</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N68" s="27"/>
       <c r="O68" s="27">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="W68" s="33"/>
       <c r="X68" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y68" s="34">
         <v>1</v>
@@ -5863,40 +5863,40 @@
         <v>68</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" s="23">
         <v>1758</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69" s="22">
         <v>3</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L69" s="25">
         <v>39085</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N69" s="27"/>
       <c r="O69" s="27">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="W69" s="33"/>
       <c r="X69" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y69" s="34">
         <v>1</v>
@@ -5931,40 +5931,40 @@
         <v>69</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" s="23">
         <v>1758</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I70" s="22">
         <v>4</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" s="25">
         <v>516</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N70" s="27"/>
       <c r="O70" s="27">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="W70" s="33"/>
       <c r="X70" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y70" s="34">
         <v>1</v>
@@ -5999,40 +5999,40 @@
         <v>70</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71" s="23">
         <v>1758</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I71" s="22">
         <v>4</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L71" s="25">
         <v>5800</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N71" s="27"/>
       <c r="O71" s="27">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="W71" s="33"/>
       <c r="X71" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y71" s="34">
         <v>1</v>
@@ -6067,40 +6067,40 @@
         <v>71</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F72" s="23">
         <v>1758</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I72" s="22">
         <v>4</v>
       </c>
       <c r="J72" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L72" s="25">
         <v>205</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N72" s="27"/>
       <c r="O72" s="27">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="W72" s="33"/>
       <c r="X72" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y72" s="34">
         <v>1</v>
@@ -6135,40 +6135,40 @@
         <v>72</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F73" s="23">
         <v>1758</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I73" s="22">
         <v>4</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L73" s="25">
         <v>367</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N73" s="27">
         <v>60</v>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="W73" s="33"/>
       <c r="X73" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y73" s="34">
         <v>1</v>
@@ -6203,40 +6203,40 @@
         <v>73</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F74" s="23">
         <v>1758</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I74" s="22">
         <v>4</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L74" s="25">
         <v>3638</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N74" s="27">
         <v>3</v>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="W74" s="33"/>
       <c r="X74" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y74" s="34">
         <v>1</v>
@@ -6273,40 +6273,40 @@
         <v>74</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F75" s="23">
         <v>1758</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I75" s="22">
         <v>4</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L75" s="25">
         <v>10000</v>
       </c>
       <c r="M75" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N75" s="27"/>
       <c r="O75" s="27">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="W75" s="33"/>
       <c r="X75" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y75" s="34">
         <v>1</v>
@@ -6341,40 +6341,40 @@
         <v>75</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F76" s="23">
         <v>1758</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I76" s="22">
         <v>4</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L76" s="25">
         <v>181</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N76" s="27"/>
       <c r="O76" s="27">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="W76" s="33"/>
       <c r="X76" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y76" s="34">
         <v>1</v>
@@ -6409,40 +6409,40 @@
         <v>76</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" s="23">
         <v>1758</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77" s="22">
         <v>4</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L77" s="25">
         <v>134</v>
       </c>
       <c r="M77" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N77" s="27">
         <v>20</v>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="W77" s="33"/>
       <c r="X77" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y77" s="34">
         <v>1</v>
@@ -6477,40 +6477,40 @@
         <v>77</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" s="23">
         <v>1758</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78" s="22">
         <v>4</v>
       </c>
       <c r="J78" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L78" s="25">
         <v>673</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N78" s="27"/>
       <c r="O78" s="27">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="W78" s="33"/>
       <c r="X78" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y78" s="34">
         <v>1</v>
@@ -6545,40 +6545,40 @@
         <v>78</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F79" s="23">
         <v>1758</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I79" s="22">
         <v>4</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L79" s="25">
         <v>1154</v>
       </c>
       <c r="M79" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N79" s="27"/>
       <c r="O79" s="27">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y79" s="34">
         <v>1</v>
@@ -6613,40 +6613,40 @@
         <v>79</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" s="23">
         <v>1758</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I80" s="22">
         <v>4</v>
       </c>
       <c r="J80" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L80" s="25">
         <v>3084</v>
       </c>
       <c r="M80" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N80" s="27">
         <v>0.27</v>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="W80" s="33"/>
       <c r="X80" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y80" s="34">
         <v>1</v>
@@ -6683,40 +6683,40 @@
         <v>80</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F81" s="23">
         <v>1758</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I81" s="22">
         <v>4</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L81" s="25">
         <v>119953</v>
       </c>
       <c r="M81" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N81" s="27"/>
       <c r="O81" s="27">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="W81" s="33"/>
       <c r="X81" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y81" s="34">
         <v>1</v>
@@ -6751,40 +6751,40 @@
         <v>81</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F82" s="23">
         <v>1758</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I82" s="22">
         <v>4</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L82" s="25">
         <v>4211</v>
       </c>
       <c r="M82" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N82" s="27"/>
       <c r="O82" s="27">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="W82" s="33"/>
       <c r="X82" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y82" s="34">
         <v>1</v>
@@ -6819,40 +6819,40 @@
         <v>82</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83" s="23">
         <v>1758</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I83" s="22">
         <v>4</v>
       </c>
       <c r="J83" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L83" s="25">
         <v>17219</v>
       </c>
       <c r="M83" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N83" s="27"/>
       <c r="O83" s="27">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="W83" s="33"/>
       <c r="X83" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y83" s="34">
         <v>1</v>
@@ -6887,40 +6887,40 @@
         <v>83</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F84" s="23">
         <v>1758</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I84" s="22">
         <v>4</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L84" s="25">
         <v>674</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N84" s="27">
         <v>10</v>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="W84" s="33"/>
       <c r="X84" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y84" s="34">
         <v>1</v>
@@ -6955,40 +6955,40 @@
         <v>84</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" s="23">
         <v>1758</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I85" s="22">
         <v>4</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L85" s="25">
         <v>30</v>
       </c>
       <c r="M85" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N85" s="27">
         <v>35</v>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="W85" s="33"/>
       <c r="X85" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y85" s="34">
         <v>1</v>
@@ -7023,40 +7023,40 @@
         <v>85</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="23">
         <v>1758</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I86" s="22">
         <v>4</v>
       </c>
       <c r="J86" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L86" s="25">
         <v>6551</v>
       </c>
       <c r="M86" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N86" s="27"/>
       <c r="O86" s="27">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="W86" s="33"/>
       <c r="X86" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y86" s="34">
         <v>1</v>
@@ -7093,40 +7093,40 @@
         <v>86</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="23">
         <v>1758</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I87" s="22">
         <v>4</v>
       </c>
       <c r="J87" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L87" s="25">
         <v>1250</v>
       </c>
       <c r="M87" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N87" s="27"/>
       <c r="O87" s="27">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="W87" s="33"/>
       <c r="X87" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y87" s="34">
         <v>1</v>
@@ -7161,40 +7161,40 @@
         <v>87</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F88" s="23">
         <v>1758</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I88" s="22">
         <v>4</v>
       </c>
       <c r="J88" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L88" s="25">
         <v>650</v>
       </c>
       <c r="M88" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N88" s="27"/>
       <c r="O88" s="27">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="W88" s="33"/>
       <c r="X88" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y88" s="34">
         <v>1</v>
@@ -7229,40 +7229,40 @@
         <v>88</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F89" s="23">
         <v>1758</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I89" s="22">
         <v>4</v>
       </c>
       <c r="J89" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L89" s="25">
         <v>366</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N89" s="27">
         <v>0.15</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="W89" s="33"/>
       <c r="X89" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y89" s="34">
         <v>1</v>
@@ -7297,40 +7297,40 @@
         <v>89</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F90" s="23">
         <v>1758</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I90" s="22">
         <v>4</v>
       </c>
       <c r="J90" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L90" s="25">
         <v>110</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N90" s="27"/>
       <c r="O90" s="27">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="W90" s="33"/>
       <c r="X90" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y90" s="34">
         <v>1</v>
@@ -7365,40 +7365,40 @@
         <v>90</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F91" s="23">
         <v>1758</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I91" s="22">
         <v>4</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L91" s="25">
         <v>626</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N91" s="27"/>
       <c r="O91" s="27">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="W91" s="33"/>
       <c r="X91" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y91" s="34">
         <v>1</v>
@@ -7433,40 +7433,40 @@
         <v>91</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F92" s="23">
         <v>1758</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I92" s="22">
         <v>4</v>
       </c>
       <c r="J92" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L92" s="25">
         <v>24357</v>
       </c>
       <c r="M92" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N92" s="27"/>
       <c r="O92" s="27">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="W92" s="33"/>
       <c r="X92" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y92" s="34">
         <v>1</v>
@@ -7501,40 +7501,40 @@
         <v>92</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F93" s="23">
         <v>1758</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I93" s="22">
         <v>4</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L93" s="25">
         <v>12454</v>
       </c>
       <c r="M93" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N93" s="27"/>
       <c r="O93" s="27">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="W93" s="33"/>
       <c r="X93" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y93" s="34">
         <v>1</v>
@@ -7569,40 +7569,40 @@
         <v>93</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F94" s="23">
         <v>1758</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I94" s="22">
         <v>4</v>
       </c>
       <c r="J94" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L94" s="25">
         <v>18299</v>
       </c>
       <c r="M94" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N94" s="27"/>
       <c r="O94" s="27">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="W94" s="33"/>
       <c r="X94" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y94" s="34">
         <v>1</v>
@@ -7637,40 +7637,40 @@
         <v>94</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F95" s="23">
         <v>1758</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I95" s="22">
         <v>4</v>
       </c>
       <c r="J95" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L95" s="25">
         <v>1200</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N95" s="27"/>
       <c r="O95" s="27">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="W95" s="33"/>
       <c r="X95" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y95" s="34">
         <v>1</v>
@@ -7705,40 +7705,40 @@
         <v>95</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" s="23">
         <v>1758</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I96" s="22">
         <v>5</v>
       </c>
       <c r="J96" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L96" s="25">
         <v>1800</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N96" s="27">
         <v>0.12</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="W96" s="33"/>
       <c r="X96" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y96" s="34">
         <v>1</v>
@@ -7773,40 +7773,40 @@
         <v>96</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F97" s="23">
         <v>1758</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I97" s="22">
         <v>5</v>
       </c>
       <c r="J97" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L97" s="25">
         <v>900</v>
       </c>
       <c r="M97" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N97" s="27">
         <v>0.25</v>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="W97" s="33"/>
       <c r="X97" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y97" s="34">
         <v>1</v>
@@ -7841,40 +7841,40 @@
         <v>97</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F98" s="23">
         <v>1758</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I98" s="22">
         <v>5</v>
       </c>
       <c r="J98" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L98" s="25">
         <v>67</v>
       </c>
       <c r="M98" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N98" s="27">
         <v>10</v>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="W98" s="33"/>
       <c r="X98" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y98" s="34">
         <v>1</v>
@@ -7909,40 +7909,40 @@
         <v>98</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F99" s="23">
         <v>1758</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I99" s="22">
         <v>5</v>
       </c>
       <c r="J99" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L99" s="25">
         <v>1150</v>
       </c>
       <c r="M99" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N99" s="27"/>
       <c r="O99" s="27">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="W99" s="33"/>
       <c r="X99" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y99" s="34">
         <v>1</v>
@@ -7977,40 +7977,40 @@
         <v>99</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" s="23">
         <v>1758</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I100" s="22">
         <v>5</v>
       </c>
       <c r="J100" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L100" s="25">
         <v>10833</v>
       </c>
       <c r="M100" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N100" s="27"/>
       <c r="O100" s="27">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="W100" s="33"/>
       <c r="X100" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y100" s="34">
         <v>1</v>
@@ -8045,40 +8045,40 @@
         <v>100</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" s="23">
         <v>1758</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I101" s="22">
         <v>5</v>
       </c>
       <c r="J101" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L101" s="25">
         <v>116</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N101" s="27">
         <v>90</v>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="W101" s="33"/>
       <c r="X101" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y101" s="34">
         <v>1</v>
@@ -8113,40 +8113,40 @@
         <v>101</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F102" s="23">
         <v>1758</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I102" s="22">
         <v>5</v>
       </c>
       <c r="J102" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L102" s="25">
         <v>4</v>
       </c>
       <c r="M102" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N102" s="27"/>
       <c r="O102" s="27">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="W102" s="33"/>
       <c r="X102" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y102" s="34">
         <v>1</v>
@@ -8181,40 +8181,40 @@
         <v>102</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F103" s="23">
         <v>1758</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I103" s="22">
         <v>5</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L103" s="25">
         <v>7932</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N103" s="27"/>
       <c r="O103" s="27">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="W103" s="33"/>
       <c r="X103" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y103" s="34">
         <v>1</v>
@@ -8249,40 +8249,40 @@
         <v>103</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F104" s="23">
         <v>1758</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I104" s="22">
         <v>5</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L104" s="25">
         <v>7884</v>
       </c>
       <c r="M104" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N104" s="27"/>
       <c r="O104" s="27">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="W104" s="33"/>
       <c r="X104" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y104" s="34">
         <v>1</v>
@@ -8317,40 +8317,40 @@
         <v>104</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F105" s="23">
         <v>1758</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I105" s="22">
         <v>5</v>
       </c>
       <c r="J105" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L105" s="25">
         <v>72</v>
       </c>
       <c r="M105" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N105" s="27">
         <v>50</v>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="W105" s="33"/>
       <c r="X105" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y105" s="34">
         <v>1</v>
@@ -8385,40 +8385,40 @@
         <v>105</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F106" s="23">
         <v>1758</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I106" s="22">
         <v>5</v>
       </c>
       <c r="J106" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L106" s="25">
         <v>1065</v>
       </c>
       <c r="M106" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N106" s="27">
         <v>3</v>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="W106" s="33"/>
       <c r="X106" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y106" s="34">
         <v>1</v>
@@ -8455,40 +8455,40 @@
         <v>106</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F107" s="23">
         <v>1758</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I107" s="22">
         <v>5</v>
       </c>
       <c r="J107" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L107" s="25">
         <v>5123</v>
       </c>
       <c r="M107" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N107" s="27"/>
       <c r="O107" s="27">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="W107" s="33"/>
       <c r="X107" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y107" s="34">
         <v>1</v>
@@ -8523,40 +8523,40 @@
         <v>107</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F108" s="23">
         <v>1758</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I108" s="22">
         <v>5</v>
       </c>
       <c r="J108" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L108" s="25">
         <v>400</v>
       </c>
       <c r="M108" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N108" s="27"/>
       <c r="O108" s="27">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="W108" s="33"/>
       <c r="X108" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y108" s="34">
         <v>1</v>
@@ -8591,40 +8591,40 @@
         <v>108</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F109" s="23">
         <v>1758</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I109" s="22">
         <v>5</v>
       </c>
       <c r="J109" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L109" s="25">
         <v>2752</v>
       </c>
       <c r="M109" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N109" s="27"/>
       <c r="O109" s="27">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="W109" s="33"/>
       <c r="X109" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y109" s="34">
         <v>1</v>
@@ -8659,40 +8659,40 @@
         <v>109</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F110" s="23">
         <v>1758</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I110" s="22">
         <v>5</v>
       </c>
       <c r="J110" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K110" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="K110" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="L110" s="25">
         <v>35065</v>
       </c>
       <c r="M110" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N110" s="27">
         <v>0.25</v>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="W110" s="33"/>
       <c r="X110" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y110" s="34">
         <v>1</v>
@@ -8727,40 +8727,40 @@
         <v>110</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F111" s="23">
         <v>1758</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I111" s="22">
         <v>5</v>
       </c>
       <c r="J111" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L111" s="25">
         <v>72</v>
       </c>
       <c r="M111" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N111" s="27">
         <v>15</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="W111" s="33"/>
       <c r="X111" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y111" s="34">
         <v>1</v>
@@ -8795,40 +8795,40 @@
         <v>111</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F112" s="23">
         <v>1758</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I112" s="22">
         <v>5</v>
       </c>
       <c r="J112" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L112" s="25">
         <v>24400</v>
       </c>
       <c r="M112" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N112" s="27"/>
       <c r="O112" s="27">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="W112" s="33"/>
       <c r="X112" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y112" s="34">
         <v>1</v>
@@ -8863,40 +8863,40 @@
         <v>112</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F113" s="23">
         <v>1758</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I113" s="22">
         <v>5</v>
       </c>
       <c r="J113" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L113" s="25">
         <v>7031</v>
       </c>
       <c r="M113" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N113" s="27"/>
       <c r="O113" s="27">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="W113" s="33"/>
       <c r="X113" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y113" s="34">
         <v>1</v>
@@ -8931,40 +8931,40 @@
         <v>113</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F114" s="23">
         <v>1758</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I114" s="22">
         <v>5</v>
       </c>
       <c r="J114" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L114" s="25">
         <v>17556</v>
       </c>
       <c r="M114" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N114" s="27">
         <v>0.09</v>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="W114" s="33"/>
       <c r="X114" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y114" s="34">
         <v>1</v>
@@ -8999,40 +8999,40 @@
         <v>114</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F115" s="23">
         <v>1758</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I115" s="22">
         <v>5</v>
       </c>
       <c r="J115" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L115" s="25">
         <v>18778</v>
       </c>
       <c r="M115" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N115" s="27"/>
       <c r="O115" s="27">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="W115" s="33"/>
       <c r="X115" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y115" s="34">
         <v>1</v>
@@ -9067,40 +9067,40 @@
         <v>115</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F116" s="23">
         <v>1758</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I116" s="22">
         <v>5</v>
       </c>
       <c r="J116" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L116" s="25">
         <v>1794</v>
       </c>
       <c r="M116" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N116" s="27">
         <v>12</v>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="W116" s="33"/>
       <c r="X116" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y116" s="34">
         <v>1</v>
@@ -9135,40 +9135,40 @@
         <v>116</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F117" s="23">
         <v>1758</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I117" s="22">
         <v>5</v>
       </c>
       <c r="J117" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L117" s="25">
         <v>34000</v>
       </c>
       <c r="M117" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N117" s="27">
         <v>0.18</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="W117" s="33"/>
       <c r="X117" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y117" s="34">
         <v>1</v>
@@ -9203,40 +9203,40 @@
         <v>117</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F118" s="23">
         <v>1758</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I118" s="22">
         <v>6</v>
       </c>
       <c r="J118" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L118" s="25">
         <v>33300</v>
       </c>
       <c r="M118" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N118" s="27"/>
       <c r="O118" s="27">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="W118" s="33"/>
       <c r="X118" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y118" s="34">
         <v>1</v>
@@ -9271,40 +9271,40 @@
         <v>118</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F119" s="23">
         <v>1758</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I119" s="22">
         <v>6</v>
       </c>
       <c r="J119" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L119" s="25">
         <v>242</v>
       </c>
       <c r="M119" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N119" s="27"/>
       <c r="O119" s="27">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="W119" s="33"/>
       <c r="X119" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y119" s="34">
         <v>1</v>
@@ -9339,40 +9339,40 @@
         <v>119</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F120" s="23">
         <v>1758</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H120" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I120" s="22">
         <v>6</v>
       </c>
       <c r="J120" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L120" s="25">
         <v>498</v>
       </c>
       <c r="M120" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N120" s="27"/>
       <c r="O120" s="27">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="W120" s="33"/>
       <c r="X120" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y120" s="34">
         <v>1</v>
@@ -9407,40 +9407,40 @@
         <v>120</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F121" s="23">
         <v>1758</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I121" s="22">
         <v>6</v>
       </c>
       <c r="J121" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L121" s="25">
         <v>7430</v>
       </c>
       <c r="M121" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N121" s="27"/>
       <c r="O121" s="27">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="W121" s="33"/>
       <c r="X121" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y121" s="34">
         <v>1</v>
@@ -9475,40 +9475,40 @@
         <v>121</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F122" s="23">
         <v>1758</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I122" s="22">
         <v>6</v>
       </c>
       <c r="J122" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L122" s="25">
         <v>147</v>
       </c>
       <c r="M122" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N122" s="27"/>
       <c r="O122" s="27">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="W122" s="33"/>
       <c r="X122" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y122" s="34">
         <v>1</v>
@@ -9543,40 +9543,40 @@
         <v>122</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F123" s="23">
         <v>1758</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I123" s="22">
         <v>6</v>
       </c>
       <c r="J123" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K123" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L123" s="25">
         <v>100</v>
       </c>
       <c r="M123" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N123" s="27">
         <v>80</v>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="W123" s="33"/>
       <c r="X123" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y123" s="34">
         <v>1</v>
@@ -9611,40 +9611,40 @@
         <v>123</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F124" s="23">
         <v>1758</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I124" s="22">
         <v>6</v>
       </c>
       <c r="J124" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L124" s="25">
         <v>2850</v>
       </c>
       <c r="M124" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N124" s="27">
         <v>0.13</v>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="W124" s="33"/>
       <c r="X124" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y124" s="34">
         <v>1</v>
@@ -9679,40 +9679,40 @@
         <v>124</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" s="23">
         <v>1758</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I125" s="22">
         <v>6</v>
       </c>
       <c r="J125" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L125" s="25">
         <v>25212</v>
       </c>
       <c r="M125" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N125" s="27">
         <v>0.15</v>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="W125" s="33"/>
       <c r="X125" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y125" s="34">
         <v>1</v>
@@ -9747,40 +9747,40 @@
         <v>125</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F126" s="23">
         <v>1758</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I126" s="22">
         <v>6</v>
       </c>
       <c r="J126" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L126" s="25">
         <v>53732</v>
       </c>
       <c r="M126" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N126" s="27">
         <v>0.25</v>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="W126" s="33"/>
       <c r="X126" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y126" s="34">
         <v>1</v>
@@ -9815,40 +9815,40 @@
         <v>126</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F127" s="23">
         <v>1758</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I127" s="22">
         <v>6</v>
       </c>
       <c r="J127" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L127" s="25">
         <v>2790</v>
       </c>
       <c r="M127" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N127" s="27"/>
       <c r="O127" s="27">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="W127" s="33"/>
       <c r="X127" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y127" s="34">
         <v>1</v>
@@ -9883,40 +9883,40 @@
         <v>127</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F128" s="23">
         <v>1758</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I128" s="22">
         <v>6</v>
       </c>
       <c r="J128" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L128" s="25">
         <v>1831</v>
       </c>
       <c r="M128" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N128" s="27"/>
       <c r="O128" s="27">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="W128" s="33"/>
       <c r="X128" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y128" s="34">
         <v>1</v>
@@ -9951,40 +9951,40 @@
         <v>128</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F129" s="23">
         <v>1758</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I129" s="22">
         <v>6</v>
       </c>
       <c r="J129" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L129" s="25">
         <v>3052</v>
       </c>
       <c r="M129" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N129" s="27"/>
       <c r="O129" s="27">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="W129" s="33"/>
       <c r="X129" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y129" s="34">
         <v>1</v>
@@ -10019,40 +10019,40 @@
         <v>129</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F130" s="23">
         <v>1758</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I130" s="22">
         <v>6</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L130" s="25">
         <v>1630</v>
       </c>
       <c r="M130" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N130" s="27"/>
       <c r="O130" s="27">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="P130" s="28"/>
       <c r="Q130" s="29">
-        <f t="shared" ref="Q130:Q161" si="8">N130+(0.05*O130)+(P130/240)</f>
+        <f t="shared" ref="Q130:Q142" si="8">N130+(0.05*O130)+(P130/240)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="R130" s="28"/>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="W130" s="33"/>
       <c r="X130" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y130" s="34">
         <v>1</v>
@@ -10087,40 +10087,40 @@
         <v>130</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F131" s="23">
         <v>1758</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I131" s="22">
         <v>6</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K131" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L131" s="25">
         <v>90</v>
       </c>
       <c r="M131" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N131" s="27">
         <v>50</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="W131" s="33"/>
       <c r="X131" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y131" s="34">
         <v>1</v>
@@ -10155,40 +10155,40 @@
         <v>131</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F132" s="23">
         <v>1758</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I132" s="22">
         <v>6</v>
       </c>
       <c r="J132" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L132" s="25">
         <v>19</v>
       </c>
       <c r="M132" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N132" s="27">
         <v>8</v>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="W132" s="33"/>
       <c r="X132" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y132" s="34">
         <v>1</v>
@@ -10223,40 +10223,40 @@
         <v>132</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F133" s="23">
         <v>1758</v>
       </c>
       <c r="G133" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I133" s="22">
         <v>6</v>
       </c>
       <c r="J133" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L133" s="25">
         <v>7324</v>
       </c>
       <c r="M133" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N133" s="27"/>
       <c r="O133" s="27">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="W133" s="33"/>
       <c r="X133" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y133" s="34">
         <v>1</v>
@@ -10291,40 +10291,40 @@
         <v>133</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F134" s="23">
         <v>1758</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I134" s="22">
         <v>6</v>
       </c>
       <c r="J134" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K134" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L134" s="25">
         <v>760</v>
       </c>
       <c r="M134" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N134" s="27"/>
       <c r="O134" s="27">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="W134" s="33"/>
       <c r="X134" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y134" s="34">
         <v>1</v>
@@ -10359,40 +10359,40 @@
         <v>134</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F135" s="23">
         <v>1758</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I135" s="22">
         <v>6</v>
       </c>
       <c r="J135" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K135" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L135" s="25">
         <v>2000</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N135" s="27">
         <v>1</v>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="W135" s="33"/>
       <c r="X135" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y135" s="34">
         <v>1</v>
@@ -10427,40 +10427,40 @@
         <v>135</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F136" s="23">
         <v>1758</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I136" s="22">
         <v>6</v>
       </c>
       <c r="J136" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K136" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="K136" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="L136" s="25">
         <v>254535</v>
       </c>
       <c r="M136" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N136" s="27"/>
       <c r="O136" s="27">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="W136" s="33"/>
       <c r="X136" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y136" s="34">
         <v>1</v>
@@ -10497,40 +10497,40 @@
         <v>136</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F137" s="23">
         <v>1758</v>
       </c>
       <c r="G137" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H137" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I137" s="22">
         <v>6</v>
       </c>
       <c r="J137" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L137" s="25">
         <v>164</v>
       </c>
       <c r="M137" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N137" s="27">
         <v>0.25</v>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="W137" s="33"/>
       <c r="X137" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y137" s="34">
         <v>1</v>
@@ -10565,40 +10565,40 @@
         <v>137</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F138" s="23">
         <v>1758</v>
       </c>
       <c r="G138" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H138" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I138" s="22">
         <v>6</v>
       </c>
       <c r="J138" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L138" s="25">
         <v>100</v>
       </c>
       <c r="M138" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N138" s="27"/>
       <c r="O138" s="27">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="W138" s="33"/>
       <c r="X138" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y138" s="34">
         <v>1</v>
@@ -10633,40 +10633,40 @@
         <v>138</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F139" s="23">
         <v>1758</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H139" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I139" s="22">
         <v>6</v>
       </c>
       <c r="J139" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L139" s="25">
         <v>964</v>
       </c>
       <c r="M139" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N139" s="27">
         <v>140</v>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="W139" s="33"/>
       <c r="X139" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y139" s="34">
         <v>1</v>
@@ -10701,40 +10701,40 @@
         <v>139</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F140" s="23">
         <v>1758</v>
       </c>
       <c r="G140" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I140" s="22">
         <v>6</v>
       </c>
       <c r="J140" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L140" s="25">
         <v>7367</v>
       </c>
       <c r="M140" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N140" s="27">
         <v>6</v>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="W140" s="33"/>
       <c r="X140" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y140" s="34">
         <v>1</v>
@@ -10771,40 +10771,40 @@
         <v>140</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F141" s="23">
         <v>1758</v>
       </c>
       <c r="G141" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H141" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I141" s="22">
         <v>6</v>
       </c>
       <c r="J141" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L141" s="25">
         <v>354802</v>
       </c>
       <c r="M141" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N141" s="27">
         <v>44</v>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="W141" s="33"/>
       <c r="X141" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y141" s="34">
         <v>1</v>
@@ -10839,40 +10839,40 @@
         <v>141</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F142" s="23">
         <v>1758</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H142" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I142" s="22">
         <v>6</v>
       </c>
       <c r="J142" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L142" s="25">
         <v>67578</v>
       </c>
       <c r="M142" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N142" s="27">
         <v>35</v>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="W142" s="33"/>
       <c r="X142" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y142" s="34">
         <v>1</v>

--- a/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E23A1-6B26-8C42-A833-A3ABD703B3F3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108BC6E-E51F-9340-A098-02FE31C29A0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="165">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>probleme</t>
+  </si>
+  <si>
+    <t>prix au 100</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1176,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="X143" sqref="X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10807,13 +10810,13 @@
         <v>34</v>
       </c>
       <c r="N141" s="27">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="O141" s="27"/>
       <c r="P141" s="28"/>
       <c r="Q141" s="29">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="R141" s="28"/>
       <c r="S141" s="28"/>
@@ -10821,11 +10824,11 @@
       <c r="U141" s="31"/>
       <c r="V141" s="32">
         <f t="shared" si="9"/>
-        <v>15611288</v>
+        <v>156112.88</v>
       </c>
       <c r="W141" s="33"/>
       <c r="X141" s="22" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="Y141" s="34">
         <v>1</v>
@@ -10875,13 +10878,13 @@
         <v>34</v>
       </c>
       <c r="N142" s="27">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="O142" s="27"/>
       <c r="P142" s="28"/>
       <c r="Q142" s="29">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="R142" s="28"/>
       <c r="S142" s="28"/>
@@ -10889,11 +10892,11 @@
       <c r="U142" s="31"/>
       <c r="V142" s="32">
         <f t="shared" si="9"/>
-        <v>2365230</v>
+        <v>23652.3</v>
       </c>
       <c r="W142" s="33"/>
       <c r="X142" s="22" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="Y142" s="34">
         <v>1</v>

--- a/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1758_Nantes Hasna à faire corriger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4108BC6E-E51F-9340-A098-02FE31C29A0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC79103F-BBEF-4D48-871F-51997824E5DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25760" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32960" windowHeight="26080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="166">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>prix au 100</t>
+  </si>
+  <si>
+    <t>prix donné à 6 sous la livre</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1179,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="X143" sqref="X143"/>
+      <selection pane="bottomLeft" activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8152,25 +8155,17 @@
         <v>31</v>
       </c>
       <c r="N102" s="27"/>
-      <c r="O102" s="27">
-        <v>6</v>
-      </c>
+      <c r="O102" s="27"/>
       <c r="P102" s="28"/>
-      <c r="Q102" s="29">
-        <f t="shared" si="6"/>
-        <v>0.30000000000000004</v>
-      </c>
+      <c r="Q102" s="29"/>
       <c r="R102" s="28"/>
       <c r="S102" s="28"/>
       <c r="T102" s="30"/>
       <c r="U102" s="31"/>
-      <c r="V102" s="32">
-        <f t="shared" si="7"/>
-        <v>1.2000000000000002</v>
-      </c>
+      <c r="V102" s="32"/>
       <c r="W102" s="33"/>
       <c r="X102" s="22" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="Y102" s="34">
         <v>1</v>
